--- a/biology/Médecine/Concentré_de_globules_rouges/Concentré_de_globules_rouges.xlsx
+++ b/biology/Médecine/Concentré_de_globules_rouges/Concentré_de_globules_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concentr%C3%A9_de_globules_rouges</t>
+          <t>Concentré_de_globules_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les concentrés de globules rouges, également appelés concentrés cellulaires, ou encore culot globulaire, sont des globules rouges qui ont été séparés en vue d'une transfusion sanguine [1].
+Les concentrés de globules rouges, également appelés concentrés cellulaires, ou encore culot globulaire, sont des globules rouges qui ont été séparés en vue d'une transfusion sanguine .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concentr%C3%A9_de_globules_rouges</t>
+          <t>Concentré_de_globules_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Utilisations médicales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les concentrés cellulaires sont généralement utilisés en cas d'anémie qui provoque des symptômes ou lorsque le taux d'hémoglobine est inférieur à 70 à 80 g/L (7 à 8 g/dL)[1],[2],[3]. Chez l'adulte, une unité augmente le taux d'hémoglobine d'environ 10 g/L (1 g/dL)[4],[5]. Des transfusions répétées peuvent être nécessaires chez les personnes recevant une chimiothérapie anticancéreuse ou qui ont des troubles de l'hémoglobine [1]. L'appariement croisé est généralement requis avant que le sang ne soit donné[1], Il est administré par injection dans une veine [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les concentrés cellulaires sont généralement utilisés en cas d'anémie qui provoque des symptômes ou lorsque le taux d'hémoglobine est inférieur à 70 à 80 g/L (7 à 8 g/dL). Chez l'adulte, une unité augmente le taux d'hémoglobine d'environ 10 g/L (1 g/dL),. Des transfusions répétées peuvent être nécessaires chez les personnes recevant une chimiothérapie anticancéreuse ou qui ont des troubles de l'hémoglobine . L'appariement croisé est généralement requis avant que le sang ne soit donné, Il est administré par injection dans une veine .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concentr%C3%A9_de_globules_rouges</t>
+          <t>Concentré_de_globules_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires comprennent des réactions allergiques telles que l'anaphylaxie, la dégradation des globules rouges, l'infection, la surcharge volémique et les lésions pulmonaires [1]. Avec les méthodes de préparation actuelles dans le monde développé, le risque d'infections virales telles que l'hépatite C et le VIH/SIDA est inférieur à un sur un million[1]. Toutefois, les risques d'infection sont plus élevés dans les pays à faible revenu [7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires comprennent des réactions allergiques telles que l'anaphylaxie, la dégradation des globules rouges, l'infection, la surcharge volémique et les lésions pulmonaires . Avec les méthodes de préparation actuelles dans le monde développé, le risque d'infections virales telles que l'hépatite C et le VIH/SIDA est inférieur à un sur un million. Toutefois, les risques d'infection sont plus élevés dans les pays à faible revenu .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Concentr%C3%A9_de_globules_rouges</t>
+          <t>Concentré_de_globules_rouges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les culots globulaires sont produits à partir de sang total ou par aphérèse [8], ils durent généralement de trois à six semaines[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les culots globulaires sont produits à partir de sang total ou par aphérèse , ils durent généralement de trois à six semaines.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Concentr%C3%A9_de_globules_rouges</t>
+          <t>Concentré_de_globules_rouges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Historique et coût</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'utilisation généralisée des concentrés de globules rouges a commencé dans les années 1960[9]. Ils figurent  sur la liste des médicaments essentiels de l'Organisation mondiale de la santé [10]. Au Royaume-Uni, ils coûtent environ 120 livres sterling par unité [11]. Il existe également un certain nombre d'autres versions, notamment le sang total, les globules rouges déleucocytés et les globules rouges lavés [1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisation généralisée des concentrés de globules rouges a commencé dans les années 1960. Ils figurent  sur la liste des médicaments essentiels de l'Organisation mondiale de la santé . Au Royaume-Uni, ils coûtent environ 120 livres sterling par unité . Il existe également un certain nombre d'autres versions, notamment le sang total, les globules rouges déleucocytés et les globules rouges lavés .
 </t>
         </is>
       </c>
